--- a/Data/TunicateData_MasterCopy_withMetadat.xlsx
+++ b/Data/TunicateData_MasterCopy_withMetadat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurengill/Github/tunicate-heat-immersion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurengill/Github/tunicate-heat-immersion/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37049E31-174B-B649-83DE-378DED14DC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44337B54-D143-4C49-B315-1C937A61ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="14" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
   <si>
     <t>photo_number</t>
   </si>
@@ -385,9 +385,6 @@
     <t>Gill, Lauren (laurengill27@gmail.com); Arthur, Payton (payton.arthur1@gmail.com); de Haas, Hazel (hazeldehaas@telus.net)</t>
   </si>
   <si>
-    <t>Bamfield Marine Sciences Centre (51° 4' 47.8128'' N, 114°7’31.9224” W), Bamfield, BC </t>
-  </si>
-  <si>
     <t>Methods Used to Collect Data</t>
   </si>
   <si>
@@ -421,8 +418,14 @@
     <t>2021-10-25, 0900-1800h</t>
   </si>
   <si>
+    <t>Description of data in columns:</t>
+  </si>
+  <si>
+    <t>South Docks, Bamfield Marine Sciences Centre (51° 4' 47.8128'' N, 114°7’31.9224” W), Bamfield, BC </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Assessment of temperature methods for controlling </t>
+      <t>Assessment of temperature methods for controlling</t>
     </r>
     <r>
       <rPr>
@@ -433,7 +436,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Didemnum vexillum</t>
+      <t xml:space="preserve"> Didemnum vexillum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Directed Studies, Fall 2021</t>
     </r>
   </si>
   <si>
@@ -459,11 +472,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>were treated in 12, 50, 70 or 90℃ seawater or freshwater for 30s or 60s. Various measures of health and mortality were measured before and after heat treatment.</t>
+      <t>were treated in 12, 50, 70 or 90℃ seawater or freshwater for 60s or 120s. Various measures of health and mortality were measured before and after heat treatment.</t>
     </r>
-  </si>
-  <si>
-    <t>Description of data in columns:</t>
   </si>
 </sst>
 </file>
@@ -31796,13 +31806,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA8E35A-3B19-3D42-8FD2-7320041BC954}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -31810,7 +31822,7 @@
         <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -31830,47 +31842,47 @@
         <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -31880,44 +31892,38 @@
         <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
